--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3357.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3357.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.22120715563557</v>
+        <v>0.8298677802085876</v>
       </c>
       <c r="B1">
-        <v>2.680088663349666</v>
+        <v>3.012964725494385</v>
       </c>
       <c r="C1">
-        <v>6.149351598409566</v>
+        <v>3.076758623123169</v>
       </c>
       <c r="D1">
-        <v>2.168997323795183</v>
+        <v>2.606669902801514</v>
       </c>
       <c r="E1">
-        <v>1.166359195701449</v>
+        <v>2.20512843132019</v>
       </c>
     </row>
   </sheetData>
